--- a/Software Engineer Ibrahim.xlsx
+++ b/Software Engineer Ibrahim.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4FA2B2-8EFB-4B61-A6C5-BF2C841AF7B5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6685970D-5B0A-4B74-92F2-4BB261110F62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -903,7 +903,7 @@
   <dimension ref="A1:X312"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="M114" sqref="M114"/>
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Software Engineer Ibrahim.xlsx
+++ b/Software Engineer Ibrahim.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6685970D-5B0A-4B74-92F2-4BB261110F62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C249D-268B-497A-BB77-D1B5CD3824A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="186">
   <si>
     <t>CSS</t>
   </si>
@@ -557,6 +557,27 @@
   </si>
   <si>
     <t xml:space="preserve">Routing </t>
+  </si>
+  <si>
+    <t>https://github.com/thebigfundamentals/lightswitch</t>
+  </si>
+  <si>
+    <t>dark and light theme with context</t>
+  </si>
+  <si>
+    <t>https://medium.com/lets-make-something-up/creating-light-dark-mode-on-a-react-app-with-context-589a5465f639</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/react/react_usereducer.asp</t>
+  </si>
+  <si>
+    <t>https://kentcdodds.com/blog/useeffect-vs-uselayouteffect</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/bfbf4c5e-d2e0-44bb-922c-585c05ab6ffd</t>
+  </si>
+  <si>
+    <t>https://react.dev/reference/react/useCallback</t>
   </si>
 </sst>
 </file>
@@ -900,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X312"/>
+  <dimension ref="A1:AC312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView tabSelected="1" topLeftCell="I91" workbookViewId="0">
+      <selection activeCell="AC107" sqref="AC107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,57 +1273,78 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H85" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N85" t="s">
+        <v>180</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H86" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H87" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P88" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -1310,62 +1352,62 @@
         <v>162</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>94</v>
       </c>
@@ -1373,7 +1415,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -1381,7 +1423,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>95</v>
       </c>
@@ -1389,7 +1431,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>96</v>
       </c>
@@ -1403,7 +1445,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>97</v>
       </c>
@@ -1411,20 +1453,23 @@
         <v>171</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>120</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="AC109" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>121</v>
       </c>
@@ -1432,7 +1477,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -1440,7 +1485,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -2003,8 +2048,15 @@
     <hyperlink ref="H115" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="X115" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="H109" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="H85" r:id="rId23" xr:uid="{5CC1FA58-B01C-4891-8CF6-6CA8E524C1B2}"/>
+    <hyperlink ref="S85" r:id="rId24" xr:uid="{AAB73B81-7756-4504-B382-CE7B88452769}"/>
+    <hyperlink ref="H86" r:id="rId25" xr:uid="{0163350F-9CCF-431F-9E09-02B024462E61}"/>
+    <hyperlink ref="H87" r:id="rId26" xr:uid="{BC4A9BC2-4570-4030-B155-0F16A5C93A2E}"/>
+    <hyperlink ref="H88" r:id="rId27" xr:uid="{FB414761-2BE4-4896-8C67-510A3960D253}"/>
+    <hyperlink ref="P88" r:id="rId28" xr:uid="{278AA1DC-78B6-4D6A-B9CD-A7DF6A871CF8}"/>
+    <hyperlink ref="AC109" r:id="rId29" xr:uid="{47E3F187-F990-473C-A029-5589C7F31AB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
--- a/Software Engineer Ibrahim.xlsx
+++ b/Software Engineer Ibrahim.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4C249D-268B-497A-BB77-D1B5CD3824A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AFDF8C-3F3E-4EFF-9716-75D854F63477}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="200">
   <si>
     <t>CSS</t>
   </si>
@@ -214,9 +214,6 @@
     <t xml:space="preserve">three.js </t>
   </si>
   <si>
-    <t xml:space="preserve">Hooks </t>
-  </si>
-  <si>
     <t>https://www.docs.google.com/presentation/d/1SnrRB2Vu1TILfdCfKDTnhk2VDpQ26Gsq/edit?usp=sharing&amp;ouid=110474980000366907565&amp;rtpof=true&amp;sd=true</t>
   </si>
   <si>
@@ -578,6 +575,51 @@
   </si>
   <si>
     <t>https://react.dev/reference/react/useCallback</t>
+  </si>
+  <si>
+    <t>https://dev.to/ahmedgmurtaza/react-performance-optimization-usememo-vs-usecallback-2p2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life Cycle Methods </t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/74c46c06-bbbd-4b52-ae7f-7afc0db9aeea</t>
+  </si>
+  <si>
+    <t>https://dev.to/amoled27/useeffect-in-reactjs-2hda</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/share/d296004f-3315-419c-8196-6b3c7ff85b68</t>
+  </si>
+  <si>
+    <t>https://ant.design/components/modal</t>
+  </si>
+  <si>
+    <t>https://mui.com/material-ui/react-modal/</t>
+  </si>
+  <si>
+    <t>https://dev.to/w3tsa/react-router-dom-v6-4b7a</t>
+  </si>
+  <si>
+    <t>Router V5 vs V6</t>
+  </si>
+  <si>
+    <t>https://dev.to/arunavamodak/react-router-v5-vs-v6-dp0</t>
+  </si>
+  <si>
+    <t>https://dev.to/finallynero/hooks-introduced-in-react-router-v5-1-7g8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a food panda in NEXT JS WITH MULTIPLE LIBRARIES AND ALSO WITH REACT NATIVE FULLY RESPONSIVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodemailer </t>
+  </si>
+  <si>
+    <t>MVC Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password hashing </t>
   </si>
 </sst>
 </file>
@@ -921,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC312"/>
+  <dimension ref="A1:AS312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I91" workbookViewId="0">
-      <selection activeCell="AC107" sqref="AC107"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="J145" sqref="J145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,7 +996,7 @@
         <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -962,18 +1004,18 @@
         <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
         <v>70</v>
       </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
       <c r="I4" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -981,12 +1023,12 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1011,18 +1053,18 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1030,10 +1072,10 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" t="s">
         <v>144</v>
-      </c>
-      <c r="F18" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1049,7 +1091,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,12 +1099,12 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1076,10 +1118,10 @@
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1117,7 +1159,7 @@
         <v>48</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -1147,55 +1189,55 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K57" t="s">
         <v>111</v>
-      </c>
-      <c r="K57" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -1270,272 +1312,313 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="F82" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="F83" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="H84" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="H85" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="N85" t="s">
+        <v>179</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>76</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="N85" t="s">
-        <v>180</v>
-      </c>
-      <c r="S85" s="3" t="s">
+      <c r="H86" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>77</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H87" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>78</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H88" s="3" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="P88" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="W88" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>79</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="P88" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="F90" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>82</v>
-      </c>
       <c r="H91" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H106" t="s">
+        <v>170</v>
+      </c>
+      <c r="I106" t="s">
         <v>171</v>
       </c>
-      <c r="I106" t="s">
+      <c r="M106" t="s">
         <v>172</v>
-      </c>
-      <c r="M106" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H107" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC109" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>129</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC114" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>130</v>
       </c>
-      <c r="H114" s="3" t="s">
+      <c r="H115" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="X115" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS115" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>162</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>131</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="X115" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>163</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>167</v>
-      </c>
       <c r="H117" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>193</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="123" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1555,74 +1638,74 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1634,7 +1717,7 @@
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -1647,17 +1730,17 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1682,70 +1765,81 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
-      <c r="G164" s="1"/>
-      <c r="H164" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-      <c r="K164" s="1"/>
-      <c r="L164" s="1"/>
-      <c r="M164" s="1"/>
-      <c r="N164" s="1"/>
-      <c r="O164" s="1"/>
-      <c r="P164" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="E163" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>155</v>
+      </c>
+      <c r="E164" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>158</v>
+      </c>
+      <c r="D174" t="s">
         <v>159</v>
-      </c>
-      <c r="D165" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1770,7 +1864,7 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -1975,7 +2069,7 @@
       <c r="F243" s="1"/>
       <c r="G243" s="1"/>
       <c r="H243" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
@@ -1988,7 +2082,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="308" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2000,7 +2094,7 @@
       <c r="F308" s="1"/>
       <c r="G308" s="1"/>
       <c r="H308" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -2013,15 +2107,20 @@
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>139</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G312" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2055,8 +2154,20 @@
     <hyperlink ref="H88" r:id="rId27" xr:uid="{FB414761-2BE4-4896-8C67-510A3960D253}"/>
     <hyperlink ref="P88" r:id="rId28" xr:uid="{278AA1DC-78B6-4D6A-B9CD-A7DF6A871CF8}"/>
     <hyperlink ref="AC109" r:id="rId29" xr:uid="{47E3F187-F990-473C-A029-5589C7F31AB2}"/>
+    <hyperlink ref="H84" r:id="rId30" xr:uid="{E9617456-3A43-4132-8340-9F8526B11FAF}"/>
+    <hyperlink ref="W88" r:id="rId31" xr:uid="{0ADB0EB7-3117-4CF0-831B-C7146C07A0F3}"/>
+    <hyperlink ref="F80" r:id="rId32" xr:uid="{B299C7D2-135B-47A2-87C4-BF5C4234B904}"/>
+    <hyperlink ref="F82" r:id="rId33" xr:uid="{1C48B43E-C113-4403-831F-4799B7EA1ABA}"/>
+    <hyperlink ref="O82" r:id="rId34" xr:uid="{6FBCFCF1-BA92-4710-A0AD-8A337786E724}"/>
+    <hyperlink ref="O80" r:id="rId35" xr:uid="{38F599FD-8262-4B70-B41D-C210981E06B5}"/>
+    <hyperlink ref="F83" r:id="rId36" xr:uid="{B6FD31CF-8037-4269-ACD1-DAD9760DEC47}"/>
+    <hyperlink ref="F90" r:id="rId37" xr:uid="{02CD4B24-5B74-4DE7-8245-4D94A0274E0F}"/>
+    <hyperlink ref="K90" r:id="rId38" xr:uid="{FA63897A-5871-4845-A73E-841A9CFF66DB}"/>
+    <hyperlink ref="AS115" r:id="rId39" xr:uid="{FA785D53-2241-4601-B780-270D5334C7DD}"/>
+    <hyperlink ref="H119" r:id="rId40" xr:uid="{ABDF6DDF-FEF5-4717-80DE-70567A572052}"/>
+    <hyperlink ref="AC114" r:id="rId41" xr:uid="{46F93AE0-2461-4A18-9F17-206E8A80D036}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
--- a/Software Engineer Ibrahim.xlsx
+++ b/Software Engineer Ibrahim.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56AFDF8C-3F3E-4EFF-9716-75D854F63477}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA3F5A8-F06D-4AA7-AB54-1DADB3425F11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="205">
   <si>
     <t>CSS</t>
   </si>
@@ -620,6 +620,21 @@
   </si>
   <si>
     <t xml:space="preserve">Password hashing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecommerce with mySql backend     </t>
+  </si>
+  <si>
+    <t>https://github.com/antonioerdeljac/next13-ecommerce-admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecommerce guide with next 14 app router </t>
+  </si>
+  <si>
+    <t>https://github.com/dejwid/food-ordering</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nGoSP3MBV2E</t>
   </si>
 </sst>
 </file>
@@ -965,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="J145" sqref="J145"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="K149" sqref="K149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,6 +1756,25 @@
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>200</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>202</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -2166,8 +2200,11 @@
     <hyperlink ref="AS115" r:id="rId39" xr:uid="{FA785D53-2241-4601-B780-270D5334C7DD}"/>
     <hyperlink ref="H119" r:id="rId40" xr:uid="{ABDF6DDF-FEF5-4717-80DE-70567A572052}"/>
     <hyperlink ref="AC114" r:id="rId41" xr:uid="{46F93AE0-2461-4A18-9F17-206E8A80D036}"/>
+    <hyperlink ref="F145" r:id="rId42" xr:uid="{9230653D-7E33-4A62-84BB-5F8BB87724E0}"/>
+    <hyperlink ref="F146" r:id="rId43" xr:uid="{73F4F60B-3709-425A-B14A-E681BC3B0FAD}"/>
+    <hyperlink ref="L146" r:id="rId44" xr:uid="{AA77FCB3-8CDF-48F5-842D-E23911AFADE9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
--- a/Software Engineer Ibrahim.xlsx
+++ b/Software Engineer Ibrahim.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA3F5A8-F06D-4AA7-AB54-1DADB3425F11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -640,7 +639,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -977,16 +976,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS312"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="K149" sqref="K149"/>
+      <selection activeCell="U142" sqref="U142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1006,7 +1005,7 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1033,7 +1032,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1041,12 +1040,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1066,7 +1065,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1093,7 +1092,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1100,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1117,12 +1116,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -1139,7 +1138,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1159,17 +1158,17 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -1177,67 +1176,67 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>110</v>
       </c>
@@ -1245,67 +1244,67 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -1325,7 +1324,7 @@
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -1336,12 +1335,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>72</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>74</v>
       </c>
@@ -1368,7 +1367,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>75</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>76</v>
       </c>
@@ -1390,7 +1389,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>77</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>78</v>
       </c>
@@ -1412,12 +1411,12 @@
         <v>185</v>
       </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>80</v>
       </c>
@@ -1428,7 +1427,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>81</v>
       </c>
@@ -1436,62 +1435,62 @@
         <v>161</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -1499,7 +1498,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>82</v>
       </c>
@@ -1507,7 +1506,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>94</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>95</v>
       </c>
@@ -1529,7 +1528,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>96</v>
       </c>
@@ -1537,12 +1536,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>119</v>
       </c>
@@ -1553,7 +1552,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>120</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>121</v>
       </c>
@@ -1569,17 +1568,17 @@
         <v>165</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>129</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>130</v>
       </c>
@@ -1604,7 +1603,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>162</v>
       </c>
@@ -1612,7 +1611,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>166</v>
       </c>
@@ -1620,12 +1619,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>193</v>
       </c>
@@ -1633,7 +1632,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="123" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -1653,77 +1652,77 @@
       <c r="O123" s="1"/>
       <c r="P123" s="1"/>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -1743,22 +1742,22 @@
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>200</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>202</v>
       </c>
@@ -1777,7 +1776,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -1797,37 +1796,37 @@
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>157</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>155</v>
       </c>
@@ -1843,12 +1842,12 @@
         <v>131</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="173" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -1868,7 +1867,7 @@
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>158</v>
       </c>
@@ -1876,7 +1875,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="182" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -1896,12 +1895,12 @@
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="200" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -1921,7 +1920,7 @@
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>15</v>
       </c>
@@ -1929,7 +1928,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1</v>
       </c>
@@ -1937,7 +1936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>3</v>
       </c>
@@ -1953,7 +1952,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>4</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -1969,7 +1968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -1989,67 +1988,67 @@
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="231" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -2069,32 +2068,32 @@
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="243" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -2114,12 +2113,12 @@
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="308" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -2139,17 +2138,17 @@
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>139</v>
       </c>
@@ -2159,50 +2158,50 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C208" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B202" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B203" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B204" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B205" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="E3" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C42" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="A57" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="H91" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="H116" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="H104" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="H103" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="H111" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="H117" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="H114" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="H115" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="X115" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="H109" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H85" r:id="rId23" xr:uid="{5CC1FA58-B01C-4891-8CF6-6CA8E524C1B2}"/>
-    <hyperlink ref="S85" r:id="rId24" xr:uid="{AAB73B81-7756-4504-B382-CE7B88452769}"/>
-    <hyperlink ref="H86" r:id="rId25" xr:uid="{0163350F-9CCF-431F-9E09-02B024462E61}"/>
-    <hyperlink ref="H87" r:id="rId26" xr:uid="{BC4A9BC2-4570-4030-B155-0F16A5C93A2E}"/>
-    <hyperlink ref="H88" r:id="rId27" xr:uid="{FB414761-2BE4-4896-8C67-510A3960D253}"/>
-    <hyperlink ref="P88" r:id="rId28" xr:uid="{278AA1DC-78B6-4D6A-B9CD-A7DF6A871CF8}"/>
-    <hyperlink ref="AC109" r:id="rId29" xr:uid="{47E3F187-F990-473C-A029-5589C7F31AB2}"/>
-    <hyperlink ref="H84" r:id="rId30" xr:uid="{E9617456-3A43-4132-8340-9F8526B11FAF}"/>
-    <hyperlink ref="W88" r:id="rId31" xr:uid="{0ADB0EB7-3117-4CF0-831B-C7146C07A0F3}"/>
-    <hyperlink ref="F80" r:id="rId32" xr:uid="{B299C7D2-135B-47A2-87C4-BF5C4234B904}"/>
-    <hyperlink ref="F82" r:id="rId33" xr:uid="{1C48B43E-C113-4403-831F-4799B7EA1ABA}"/>
-    <hyperlink ref="O82" r:id="rId34" xr:uid="{6FBCFCF1-BA92-4710-A0AD-8A337786E724}"/>
-    <hyperlink ref="O80" r:id="rId35" xr:uid="{38F599FD-8262-4B70-B41D-C210981E06B5}"/>
-    <hyperlink ref="F83" r:id="rId36" xr:uid="{B6FD31CF-8037-4269-ACD1-DAD9760DEC47}"/>
-    <hyperlink ref="F90" r:id="rId37" xr:uid="{02CD4B24-5B74-4DE7-8245-4D94A0274E0F}"/>
-    <hyperlink ref="K90" r:id="rId38" xr:uid="{FA63897A-5871-4845-A73E-841A9CFF66DB}"/>
-    <hyperlink ref="AS115" r:id="rId39" xr:uid="{FA785D53-2241-4601-B780-270D5334C7DD}"/>
-    <hyperlink ref="H119" r:id="rId40" xr:uid="{ABDF6DDF-FEF5-4717-80DE-70567A572052}"/>
-    <hyperlink ref="AC114" r:id="rId41" xr:uid="{46F93AE0-2461-4A18-9F17-206E8A80D036}"/>
-    <hyperlink ref="F145" r:id="rId42" xr:uid="{9230653D-7E33-4A62-84BB-5F8BB87724E0}"/>
-    <hyperlink ref="F146" r:id="rId43" xr:uid="{73F4F60B-3709-425A-B14A-E681BC3B0FAD}"/>
-    <hyperlink ref="L146" r:id="rId44" xr:uid="{AA77FCB3-8CDF-48F5-842D-E23911AFADE9}"/>
+    <hyperlink ref="C208" r:id="rId1"/>
+    <hyperlink ref="B202" r:id="rId2"/>
+    <hyperlink ref="B203" r:id="rId3"/>
+    <hyperlink ref="B204" r:id="rId4"/>
+    <hyperlink ref="B205" r:id="rId5"/>
+    <hyperlink ref="D2" r:id="rId6"/>
+    <hyperlink ref="E3" r:id="rId7"/>
+    <hyperlink ref="C16" r:id="rId8"/>
+    <hyperlink ref="C42" r:id="rId9"/>
+    <hyperlink ref="A57" r:id="rId10"/>
+    <hyperlink ref="C17" r:id="rId11"/>
+    <hyperlink ref="I4" r:id="rId12"/>
+    <hyperlink ref="H91" r:id="rId13"/>
+    <hyperlink ref="H116" r:id="rId14"/>
+    <hyperlink ref="H104" r:id="rId15"/>
+    <hyperlink ref="H103" r:id="rId16"/>
+    <hyperlink ref="H111" r:id="rId17"/>
+    <hyperlink ref="H117" r:id="rId18"/>
+    <hyperlink ref="H114" r:id="rId19"/>
+    <hyperlink ref="H115" r:id="rId20"/>
+    <hyperlink ref="X115" r:id="rId21"/>
+    <hyperlink ref="H109" r:id="rId22"/>
+    <hyperlink ref="H85" r:id="rId23"/>
+    <hyperlink ref="S85" r:id="rId24"/>
+    <hyperlink ref="H86" r:id="rId25"/>
+    <hyperlink ref="H87" r:id="rId26"/>
+    <hyperlink ref="H88" r:id="rId27"/>
+    <hyperlink ref="P88" r:id="rId28"/>
+    <hyperlink ref="AC109" r:id="rId29"/>
+    <hyperlink ref="H84" r:id="rId30"/>
+    <hyperlink ref="W88" r:id="rId31"/>
+    <hyperlink ref="F80" r:id="rId32"/>
+    <hyperlink ref="F82" r:id="rId33"/>
+    <hyperlink ref="O82" r:id="rId34"/>
+    <hyperlink ref="O80" r:id="rId35"/>
+    <hyperlink ref="F83" r:id="rId36"/>
+    <hyperlink ref="F90" r:id="rId37"/>
+    <hyperlink ref="K90" r:id="rId38"/>
+    <hyperlink ref="AS115" r:id="rId39"/>
+    <hyperlink ref="H119" r:id="rId40"/>
+    <hyperlink ref="AC114" r:id="rId41"/>
+    <hyperlink ref="F145" r:id="rId42"/>
+    <hyperlink ref="F146" r:id="rId43"/>
+    <hyperlink ref="L146" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId45"/>
